--- a/www/IndicatorsPerCountry/Iraq_CroplandperCapita_TerritorialRef_1946_2012_CCode_368.xlsx
+++ b/www/IndicatorsPerCountry/Iraq_CroplandperCapita_TerritorialRef_1946_2012_CCode_368.xlsx
@@ -168,13 +168,13 @@
     <t>Klein Goldewijk, Kees (2015). Cropland per Capita. http://hdl.handle.net/10622/DONJXY, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_DONJXY.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_DONJXY.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_DONJXY.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_DONJXY.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_DONJXY.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_DONJXY.bib</t>
   </si>
 </sst>
 </file>
